--- a/src/test/resources/ExcelFiles/TestData.xlsx
+++ b/src/test/resources/ExcelFiles/TestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectsNew\ZestIOT\src\test\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git\ZestIOTAutomation\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17475" windowHeight="6570" tabRatio="987"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17475" windowHeight="6570" tabRatio="987" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="FlightInfo" sheetId="18" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="19" r:id="rId3"/>
+    <sheet name="bsspl" sheetId="27" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="__Anonymous_Sheet_DB__1">#REF!</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="157">
   <si>
     <t>Test Browser – FF,Chrome,IE10</t>
   </si>
@@ -163,19 +164,359 @@
   </si>
   <si>
     <t>Verify all activities</t>
+  </si>
+  <si>
+    <t>TG-316</t>
+  </si>
+  <si>
+    <t>SG-8189</t>
+  </si>
+  <si>
+    <t>AC-043</t>
+  </si>
+  <si>
+    <t>XW-305</t>
+  </si>
+  <si>
+    <t>AI-161</t>
+  </si>
+  <si>
+    <t>KU-382</t>
+  </si>
+  <si>
+    <t>G9-464</t>
+  </si>
+  <si>
+    <t>QR-8663</t>
+  </si>
+  <si>
+    <t>QR-579</t>
+  </si>
+  <si>
+    <t>XY-330</t>
+  </si>
+  <si>
+    <t>AZ-769</t>
+  </si>
+  <si>
+    <t>AI-349</t>
+  </si>
+  <si>
+    <t>IA-444</t>
+  </si>
+  <si>
+    <t>EY-211</t>
+  </si>
+  <si>
+    <t>GF-133</t>
+  </si>
+  <si>
+    <t>AI-851</t>
+  </si>
+  <si>
+    <t>GF-131</t>
+  </si>
+  <si>
+    <t>SG-8473</t>
+  </si>
+  <si>
+    <t>SG-8901</t>
+  </si>
+  <si>
+    <t>AC-045</t>
+  </si>
+  <si>
+    <t>AI-435</t>
+  </si>
+  <si>
+    <t>SG-7095</t>
+  </si>
+  <si>
+    <t>AI-803</t>
+  </si>
+  <si>
+    <t>KU-384</t>
+  </si>
+  <si>
+    <t>AI-077</t>
+  </si>
+  <si>
+    <t>AI-213</t>
+  </si>
+  <si>
+    <t>SG-8561</t>
+  </si>
+  <si>
+    <t>AI-665</t>
+  </si>
+  <si>
+    <t>SG-8185</t>
+  </si>
+  <si>
+    <t>EY-229</t>
+  </si>
+  <si>
+    <t>YK-704</t>
+  </si>
+  <si>
+    <t>SG-8903/ 8923</t>
+  </si>
+  <si>
+    <t>QR-571</t>
+  </si>
+  <si>
+    <t>WY-242</t>
+  </si>
+  <si>
+    <t>SG-8152</t>
+  </si>
+  <si>
+    <t>SG-8963</t>
+  </si>
+  <si>
+    <t>AI-821</t>
+  </si>
+  <si>
+    <t>TG-324</t>
+  </si>
+  <si>
+    <t>AI-463</t>
+  </si>
+  <si>
+    <t>SG-8171</t>
+  </si>
+  <si>
+    <t>SG-8717</t>
+  </si>
+  <si>
+    <t>AI-491</t>
+  </si>
+  <si>
+    <t>AI-433</t>
+  </si>
+  <si>
+    <t>AI-281</t>
+  </si>
+  <si>
+    <t>SG-8392</t>
+  </si>
+  <si>
+    <t>AI-143</t>
+  </si>
+  <si>
+    <t>UW-9944</t>
+  </si>
+  <si>
+    <t>SG-8751</t>
+  </si>
+  <si>
+    <t>VS-301</t>
+  </si>
+  <si>
+    <t>AI-407</t>
+  </si>
+  <si>
+    <t>AI-111</t>
+  </si>
+  <si>
+    <t>RQ-916</t>
+  </si>
+  <si>
+    <t>AI-636</t>
+  </si>
+  <si>
+    <t>SG-8955</t>
+  </si>
+  <si>
+    <t>WY-246</t>
+  </si>
+  <si>
+    <t>SG-8480</t>
+  </si>
+  <si>
+    <t>AI-010</t>
+  </si>
+  <si>
+    <t>SG-8938</t>
+  </si>
+  <si>
+    <t>SG-8144</t>
+  </si>
+  <si>
+    <t>AI-048</t>
+  </si>
+  <si>
+    <t>SV-761</t>
+  </si>
+  <si>
+    <t>G9-466</t>
+  </si>
+  <si>
+    <t>SG-8483</t>
+  </si>
+  <si>
+    <t>AI-489</t>
+  </si>
+  <si>
+    <t>SG-8394</t>
+  </si>
+  <si>
+    <t>SG-8952</t>
+  </si>
+  <si>
+    <t>SV-759</t>
+  </si>
+  <si>
+    <t>JL-740</t>
+  </si>
+  <si>
+    <t>AI-995</t>
+  </si>
+  <si>
+    <t>SG-8908</t>
+  </si>
+  <si>
+    <t>AI-540</t>
+  </si>
+  <si>
+    <t>EY-223</t>
+  </si>
+  <si>
+    <t>WY-248</t>
+  </si>
+  <si>
+    <t>GF-135</t>
+  </si>
+  <si>
+    <t>PS-392</t>
+  </si>
+  <si>
+    <t>SG-7063</t>
+  </si>
+  <si>
+    <t>SG-7032</t>
+  </si>
+  <si>
+    <t>CA-948</t>
+  </si>
+  <si>
+    <t>IA-446</t>
+  </si>
+  <si>
+    <t>UW-9899</t>
+  </si>
+  <si>
+    <t>K4-248</t>
+  </si>
+  <si>
+    <t>AI-243</t>
+  </si>
+  <si>
+    <t>RQ-934</t>
+  </si>
+  <si>
+    <t>UPS-0015</t>
+  </si>
+  <si>
+    <t>AI-544</t>
+  </si>
+  <si>
+    <t>SV-765</t>
+  </si>
+  <si>
+    <t>K4-249</t>
+  </si>
+  <si>
+    <t>J2-5002</t>
+  </si>
+  <si>
+    <t>W5-070</t>
+  </si>
+  <si>
+    <t>EY-974</t>
+  </si>
+  <si>
+    <t>QR-8661</t>
+  </si>
+  <si>
+    <t>K4-247</t>
+  </si>
+  <si>
+    <t>QR-8665</t>
+  </si>
+  <si>
+    <t>03-7132</t>
+  </si>
+  <si>
+    <t>7J-118</t>
+  </si>
+  <si>
+    <t>TG-336</t>
+  </si>
+  <si>
+    <t>SG-8211</t>
+  </si>
+  <si>
+    <t>K4-253</t>
+  </si>
+  <si>
+    <t>SG-7093</t>
+  </si>
+  <si>
+    <t>SZ-110</t>
+  </si>
+  <si>
+    <t>UPS-0027</t>
+  </si>
+  <si>
+    <t>K4-250</t>
+  </si>
+  <si>
+    <t>SG-7017</t>
+  </si>
+  <si>
+    <t>Mon_Flight_Num</t>
+  </si>
+  <si>
+    <t>Tue_Flight_Num</t>
+  </si>
+  <si>
+    <t>Wed_Flight_Num</t>
+  </si>
+  <si>
+    <t>Thu_Flight_Num</t>
+  </si>
+  <si>
+    <t>Fri_Flight_Num</t>
+  </si>
+  <si>
+    <t>Sat_Flight_Num</t>
+  </si>
+  <si>
+    <t>Sun_Flight_Num</t>
+  </si>
+  <si>
+    <t>Null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -242,8 +583,21 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +628,14 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -355,22 +715,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -381,44 +813,73 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -766,7 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13:E14"/>
     </sheetView>
   </sheetViews>
@@ -1407,7 +1868,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1459,7 +1920,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1621,4 +2082,1961 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G64" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G65" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G66" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G68" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G75" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G76" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G77" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G78" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G79" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G80" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F81" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G81" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F82" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G82" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G83" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A84" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G84" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/ExcelFiles/TestData.xlsx
+++ b/src/test/resources/ExcelFiles/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17475" windowHeight="6570" tabRatio="987" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17475" windowHeight="6570" tabRatio="987" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="FlightInfo" sheetId="18" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="19" r:id="rId3"/>
     <sheet name="bsspl" sheetId="27" r:id="rId4"/>
+    <sheet name="Mon_Flight_Num" sheetId="28" r:id="rId5"/>
+    <sheet name="Tue_Flight_Num" sheetId="29" r:id="rId6"/>
+    <sheet name="Wed_Flight_Num" sheetId="30" r:id="rId7"/>
+    <sheet name="Thu_Flight_Num" sheetId="31" r:id="rId8"/>
+    <sheet name="Fri_Flight_Num" sheetId="32" r:id="rId9"/>
+    <sheet name="Sat_Flight_Num" sheetId="33" r:id="rId10"/>
+    <sheet name="Sun_Flight_Num" sheetId="34" r:id="rId11"/>
+    <sheet name="Fri" sheetId="35" r:id="rId12"/>
+    <sheet name="Thu" sheetId="36" r:id="rId13"/>
+    <sheet name="tue" sheetId="37" r:id="rId14"/>
+    <sheet name="Mon" sheetId="38" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="__Anonymous_Sheet_DB__1">#REF!</definedName>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="173">
   <si>
     <t>Test Browser – FF,Chrome,IE10</t>
   </si>
@@ -497,19 +508,88 @@
   </si>
   <si>
     <t>Null</t>
+  </si>
+  <si>
+    <t>Flt No.</t>
+  </si>
+  <si>
+    <t>O3-7132</t>
+  </si>
+  <si>
+    <t>N/SM-SOBM</t>
+  </si>
+  <si>
+    <t>N/SCH</t>
+  </si>
+  <si>
+    <t>SG-7035</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SG-8561</t>
+  </si>
+  <si>
+    <t>A6-RDJ</t>
+  </si>
+  <si>
+    <t>RBS-7602</t>
+  </si>
+  <si>
+    <t>EW-383TH</t>
+  </si>
+  <si>
+    <t>SG-8923</t>
+  </si>
+  <si>
+    <t>N/S(VP-CNT)</t>
+  </si>
+  <si>
+    <t>VT-JSI</t>
+  </si>
+  <si>
+    <t>N-6188</t>
+  </si>
+  <si>
+    <t>T7-RSP</t>
+  </si>
+  <si>
+    <t>N/SCH.</t>
+  </si>
+  <si>
+    <t>N/sch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -596,6 +676,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -635,7 +739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -786,23 +890,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -813,73 +947,206 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="6" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 5" xfId="5"/>
+    <cellStyle name="Normal 6" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1863,6 +2130,2705 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:XFD97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" style="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="R106" sqref="R106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A84" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" style="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="29.25">
+      <c r="A41" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="29.25">
+      <c r="A37" s="53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A1" s="56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="29.25">
+      <c r="A40" s="65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="64" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A1" s="69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A36" s="68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A64" s="68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A67" s="72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A76" s="68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A77" s="73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
@@ -2088,8 +5054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4039,4 +7005,2099 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:XFD93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" style="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/ExcelFiles/TestData.xlsx
+++ b/src/test/resources/ExcelFiles/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17475" windowHeight="6570" tabRatio="987" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17475" windowHeight="6570" tabRatio="987" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="174">
   <si>
     <t>Test Browser – FF,Chrome,IE10</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>N/sch</t>
+  </si>
+  <si>
+    <t>SG-8903</t>
   </si>
 </sst>
 </file>
@@ -2134,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A83"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD97"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A75" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2567,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A84"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="R106" sqref="R106"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3678,7 +3681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
@@ -4043,8 +4046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A75"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7012,7 +7015,7 @@
   <dimension ref="A1:A76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7407,10 +7410,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A79"/>
+  <dimension ref="A1:A80"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:XFD95"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7570,246 +7573,251 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="27" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="27" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="27" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="27" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="27" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="27" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="27" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="27" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="27" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="27" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="27" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="27" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="27" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="27" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="27" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="27" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="25" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="25" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7820,10 +7828,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A83"/>
+  <dimension ref="A1:A84"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD93"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8003,7 +8011,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="27" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -8244,6 +8252,11 @@
     <row r="83" spans="1:1">
       <c r="A83" s="25" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="33" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -8255,8 +8268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A80"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD97"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A75" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/ExcelFiles/TestData.xlsx
+++ b/src/test/resources/ExcelFiles/TestData.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git\ZestIOTAutomation\src\test\resources\ExcelFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17475" windowHeight="6570" tabRatio="987" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="7860" tabRatio="987" firstSheet="8" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="FlightInfo" sheetId="18" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="19" r:id="rId3"/>
     <sheet name="bsspl" sheetId="27" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="34" r:id="rId5"/>
+    <sheet name="10Dec" sheetId="29" r:id="rId6"/>
+    <sheet name="9Dec-bayNo" sheetId="30" r:id="rId7"/>
+    <sheet name="10Dec-BayNo" sheetId="28" r:id="rId8"/>
+    <sheet name="11Dec-BayNo" sheetId="31" r:id="rId9"/>
+    <sheet name="12Dec-BayNo" sheetId="32" r:id="rId10"/>
+    <sheet name="13Dec-BayNo" sheetId="33" r:id="rId11"/>
+    <sheet name="Mon_BSSPL" sheetId="35" r:id="rId12"/>
+    <sheet name="Tue_BSSPL" sheetId="36" r:id="rId13"/>
+    <sheet name="Wed_BSSPL" sheetId="37" r:id="rId14"/>
+    <sheet name="Thurs_BSSPL" sheetId="38" r:id="rId15"/>
+    <sheet name="Fri_BSSPL" sheetId="39" r:id="rId16"/>
+    <sheet name="Sat_BSSPL" sheetId="40" r:id="rId17"/>
+    <sheet name="Sun_BSSPL" sheetId="41" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="__Anonymous_Sheet_DB__1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
+  <oleSize ref="A1:P25"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="276">
   <si>
     <t>Test Browser – FF,Chrome,IE10</t>
   </si>
@@ -497,19 +507,390 @@
   </si>
   <si>
     <t>Null</t>
+  </si>
+  <si>
+    <t>10_Dec_list</t>
+  </si>
+  <si>
+    <t>EW-412TH</t>
+  </si>
+  <si>
+    <t>EW-383TH</t>
+  </si>
+  <si>
+    <t>N/S</t>
+  </si>
+  <si>
+    <t>SG-8923</t>
+  </si>
+  <si>
+    <t>N/SCH</t>
+  </si>
+  <si>
+    <t>Flight_No</t>
+  </si>
+  <si>
+    <t>Bay_No</t>
+  </si>
+  <si>
+    <t>A-03</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>B-21</t>
+  </si>
+  <si>
+    <t>B-18</t>
+  </si>
+  <si>
+    <t>B-17L</t>
+  </si>
+  <si>
+    <t>A-11</t>
+  </si>
+  <si>
+    <t>A-08R</t>
+  </si>
+  <si>
+    <t>A-07</t>
+  </si>
+  <si>
+    <t>B-22</t>
+  </si>
+  <si>
+    <t>A12L</t>
+  </si>
+  <si>
+    <t>A-11L</t>
+  </si>
+  <si>
+    <t>A-14L</t>
+  </si>
+  <si>
+    <t>A-09L</t>
+  </si>
+  <si>
+    <t>A-10</t>
+  </si>
+  <si>
+    <t>A-7</t>
+  </si>
+  <si>
+    <t>C-27L</t>
+  </si>
+  <si>
+    <t>A-13</t>
+  </si>
+  <si>
+    <t>A-12</t>
+  </si>
+  <si>
+    <t>A-3</t>
+  </si>
+  <si>
+    <t>A-06</t>
+  </si>
+  <si>
+    <t>B-19</t>
+  </si>
+  <si>
+    <t>A-01</t>
+  </si>
+  <si>
+    <t>C-28L</t>
+  </si>
+  <si>
+    <t>E-84</t>
+  </si>
+  <si>
+    <t>A-07L</t>
+  </si>
+  <si>
+    <t>C-31L</t>
+  </si>
+  <si>
+    <t>D-41</t>
+  </si>
+  <si>
+    <t>D-51</t>
+  </si>
+  <si>
+    <t>C-27R</t>
+  </si>
+  <si>
+    <t>C-31R</t>
+  </si>
+  <si>
+    <t>D-48</t>
+  </si>
+  <si>
+    <t>D-47</t>
+  </si>
+  <si>
+    <t>B-22R</t>
+  </si>
+  <si>
+    <t>C-29R</t>
+  </si>
+  <si>
+    <t>D-53</t>
+  </si>
+  <si>
+    <t>C-30L</t>
+  </si>
+  <si>
+    <t>B-24L</t>
+  </si>
+  <si>
+    <t>C-33</t>
+  </si>
+  <si>
+    <t>D-58</t>
+  </si>
+  <si>
+    <t>D-52</t>
+  </si>
+  <si>
+    <t>D-56</t>
+  </si>
+  <si>
+    <t>C-30R</t>
+  </si>
+  <si>
+    <t>D-55</t>
+  </si>
+  <si>
+    <t>N-6188</t>
+  </si>
+  <si>
+    <t>A-08</t>
+  </si>
+  <si>
+    <t>A-09</t>
+  </si>
+  <si>
+    <t>B-15</t>
+  </si>
+  <si>
+    <t>B-24R</t>
+  </si>
+  <si>
+    <t>B-26</t>
+  </si>
+  <si>
+    <t>A-10R</t>
+  </si>
+  <si>
+    <t>B-15R</t>
+  </si>
+  <si>
+    <t>B-20</t>
+  </si>
+  <si>
+    <t>B-17R</t>
+  </si>
+  <si>
+    <t>T7-RSP</t>
+  </si>
+  <si>
+    <t>C-34L</t>
+  </si>
+  <si>
+    <t>D-49</t>
+  </si>
+  <si>
+    <t>R-07R</t>
+  </si>
+  <si>
+    <t>E-78</t>
+  </si>
+  <si>
+    <t>D-54</t>
+  </si>
+  <si>
+    <t>D-62</t>
+  </si>
+  <si>
+    <t>D-45</t>
+  </si>
+  <si>
+    <t>C-36</t>
+  </si>
+  <si>
+    <t>D-50</t>
+  </si>
+  <si>
+    <t>C-29L</t>
+  </si>
+  <si>
+    <t>D-43</t>
+  </si>
+  <si>
+    <t>N/SCH.</t>
+  </si>
+  <si>
+    <t>A-12R</t>
+  </si>
+  <si>
+    <t>A-12L</t>
+  </si>
+  <si>
+    <t>A-9R</t>
+  </si>
+  <si>
+    <t>B-19L</t>
+  </si>
+  <si>
+    <t>B-24</t>
+  </si>
+  <si>
+    <t>C-28R</t>
+  </si>
+  <si>
+    <t>E-76</t>
+  </si>
+  <si>
+    <t>A-14R</t>
+  </si>
+  <si>
+    <t>R-11</t>
+  </si>
+  <si>
+    <t>C-34R</t>
+  </si>
+  <si>
+    <t>D-532</t>
+  </si>
+  <si>
+    <t>R-01</t>
+  </si>
+  <si>
+    <t>A-14</t>
+  </si>
+  <si>
+    <t>B-22L</t>
+  </si>
+  <si>
+    <t>D-60</t>
+  </si>
+  <si>
+    <t>N/S(VP-CNT)</t>
+  </si>
+  <si>
+    <t>A-10L</t>
+  </si>
+  <si>
+    <t>A-09R</t>
+  </si>
+  <si>
+    <t>A-08L</t>
+  </si>
+  <si>
+    <t>R-12</t>
+  </si>
+  <si>
+    <t>A-18</t>
+  </si>
+  <si>
+    <t>E-68</t>
+  </si>
+  <si>
+    <t>E-66</t>
+  </si>
+  <si>
+    <t>D-46</t>
+  </si>
+  <si>
+    <t>E-64</t>
+  </si>
+  <si>
+    <t>A-01L</t>
+  </si>
+  <si>
+    <t>VT-JSI</t>
+  </si>
+  <si>
+    <t>O3-7132</t>
+  </si>
+  <si>
+    <t>N/SM-SOBM</t>
+  </si>
+  <si>
+    <t>B-15L</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A-11R</t>
+  </si>
+  <si>
+    <t>B-17</t>
+  </si>
+  <si>
+    <t>T-2/52</t>
+  </si>
+  <si>
+    <t>SG7063</t>
+  </si>
+  <si>
+    <t>SG-7035</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SG-8561</t>
+  </si>
+  <si>
+    <t>A6-RDJ</t>
+  </si>
+  <si>
+    <t>C-34</t>
+  </si>
+  <si>
+    <t>R-07L</t>
+  </si>
+  <si>
+    <t>C31R</t>
+  </si>
+  <si>
+    <t>T2-54</t>
+  </si>
+  <si>
+    <t>RBS-7602</t>
+  </si>
+  <si>
+    <t>B-20L</t>
+  </si>
+  <si>
+    <t>SG-8903</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -596,6 +977,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -635,7 +1040,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -786,23 +1191,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -813,73 +1247,376 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 5" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1231,16 +1968,16 @@
       <selection activeCell="D13" sqref="D13:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.7109375"/>
-    <col min="4" max="4" width="14.5703125"/>
-    <col min="5" max="5" width="21.5703125"/>
+    <col min="2" max="2" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.6640625"/>
+    <col min="4" max="4" width="14.5546875"/>
+    <col min="5" max="5" width="21.5546875"/>
     <col min="6" max="6" width="28"/>
-    <col min="7" max="252" width="8.7109375"/>
-    <col min="253" max="1025" width="11.28515625"/>
+    <col min="7" max="252" width="8.6640625"/>
+    <col min="253" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1">
@@ -1267,7 +2004,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="31.5">
+    <row r="3" spans="1:9" ht="31.2">
       <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
@@ -1287,7 +2024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18">
       <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
@@ -1393,7 +2130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
@@ -1428,7 +2165,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30">
+    <row r="12" spans="1:9">
       <c r="A12" s="21" t="s">
         <v>8</v>
       </c>
@@ -1549,308 +2286,308 @@
       <c r="D24" s="12"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="409.6">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="409.6">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="409.6">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="409.6">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="409.6">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="17"/>
       <c r="D29" s="12"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="409.6">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="409.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="17"/>
       <c r="D31" s="12"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="409.6">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="18"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="409.6">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="18"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="409.6">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="18"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="409.6">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="17"/>
       <c r="D35" s="18"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="409.6">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="409.6">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="17"/>
       <c r="D37" s="18"/>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="409.6">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="409.6">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="409.6">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="409.6">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="17"/>
       <c r="D41" s="18"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="409.6">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="17"/>
       <c r="D42" s="18"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="409.6">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="17"/>
       <c r="D43" s="18"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="409.6">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="409.6">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="409.6">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="409.6">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="409.6">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="18"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="409.6">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="18"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" ht="409.6">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="17"/>
       <c r="D50" s="18"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="409.6">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="19"/>
       <c r="D51" s="18"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" ht="409.6">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="19"/>
       <c r="D52" s="18"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="409.6">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="19"/>
       <c r="D53" s="18"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="409.6">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="19"/>
       <c r="D54" s="18"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="409.6">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="18"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="409.6">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="18"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="409.6">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" ht="409.6">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" ht="409.6">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" ht="409.6">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="409.6">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="409.6">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" ht="409.6">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" ht="409.6">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="409.6">
       <c r="A65" s="20"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" ht="409.6">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" ht="409.6">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" ht="409.6">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -1860,6 +2597,4259 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="57">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="130" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="131" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="57">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="56" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="56" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="64" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="131">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="134" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="135">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="133" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="57" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="57" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="57">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="57">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="B68" s="56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="57" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="95" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" s="96">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="57">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" s="56">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="57">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="130" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="131" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="57">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" s="57">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="57" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="57">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B53" s="57">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="57" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="56" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="57" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="B58" s="56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="56" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="56" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="56" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="B64" s="56" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="56" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" s="56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" s="64">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="131" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="134" t="s">
+        <v>273</v>
+      </c>
+      <c r="B72" s="135">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="134" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="135">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" s="64" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="133" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="57" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" customFormat="1">
+      <c r="A32" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" customFormat="1">
+      <c r="A33" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" customFormat="1">
+      <c r="A34" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" customFormat="1">
+      <c r="A35" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" customFormat="1">
+      <c r="A36" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" customFormat="1">
+      <c r="A37" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" customFormat="1">
+      <c r="A38" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" customFormat="1">
+      <c r="A39" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" customFormat="1">
+      <c r="A40" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" customFormat="1">
+      <c r="A41" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" customFormat="1">
+      <c r="A42" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" customFormat="1">
+      <c r="A43" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" customFormat="1">
+      <c r="A44" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" customFormat="1">
+      <c r="A45" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" customFormat="1">
+      <c r="A46" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" customFormat="1">
+      <c r="A47" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" customFormat="1">
+      <c r="A48" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" customFormat="1">
+      <c r="A49" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" customFormat="1">
+      <c r="A50" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" customFormat="1">
+      <c r="A51" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" customFormat="1">
+      <c r="A52" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" customFormat="1">
+      <c r="A53" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" customFormat="1">
+      <c r="A54" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" customFormat="1">
+      <c r="A55" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" customFormat="1">
+      <c r="A56" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" customFormat="1">
+      <c r="A57" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" customFormat="1">
+      <c r="A58" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" customFormat="1">
+      <c r="A59" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" customFormat="1">
+      <c r="A60" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" customFormat="1">
+      <c r="A61" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" customFormat="1">
+      <c r="A62" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" customFormat="1">
+      <c r="A63" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" customFormat="1">
+      <c r="A64" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" customFormat="1">
+      <c r="A65" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" customFormat="1">
+      <c r="A66" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" customFormat="1">
+      <c r="A67" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" customFormat="1">
+      <c r="A68" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" customFormat="1">
+      <c r="A69" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" customFormat="1">
+      <c r="A70" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" customFormat="1">
+      <c r="A71" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" customFormat="1">
+      <c r="A72" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" customFormat="1">
+      <c r="A73" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" customFormat="1">
+      <c r="A74" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" customFormat="1">
+      <c r="A75" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" customFormat="1">
+      <c r="A76" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" customFormat="1">
+      <c r="A77" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" customFormat="1">
+      <c r="A31" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" customFormat="1">
+      <c r="A32" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" customFormat="1">
+      <c r="A33" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" customFormat="1">
+      <c r="A34" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" customFormat="1">
+      <c r="A35" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" customFormat="1">
+      <c r="A36" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" customFormat="1">
+      <c r="A37" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" customFormat="1">
+      <c r="A38" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" customFormat="1">
+      <c r="A39" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" customFormat="1">
+      <c r="A40" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" customFormat="1">
+      <c r="A41" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" customFormat="1">
+      <c r="A42" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" customFormat="1">
+      <c r="A43" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" customFormat="1">
+      <c r="A44" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" customFormat="1">
+      <c r="A45" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" customFormat="1">
+      <c r="A46" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" customFormat="1">
+      <c r="A47" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" customFormat="1">
+      <c r="A48" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" customFormat="1">
+      <c r="A49" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" customFormat="1">
+      <c r="A50" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" customFormat="1">
+      <c r="A51" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" customFormat="1">
+      <c r="A52" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" customFormat="1">
+      <c r="A53" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" customFormat="1">
+      <c r="A54" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" customFormat="1">
+      <c r="A55" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" customFormat="1">
+      <c r="A56" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" customFormat="1">
+      <c r="A57" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" customFormat="1">
+      <c r="A58" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" customFormat="1">
+      <c r="A59" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" customFormat="1">
+      <c r="A60" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" customFormat="1">
+      <c r="A61" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" customFormat="1">
+      <c r="A62" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" customFormat="1">
+      <c r="A63" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" customFormat="1">
+      <c r="A64" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" customFormat="1">
+      <c r="A65" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" customFormat="1">
+      <c r="A66" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" customFormat="1">
+      <c r="A67" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" customFormat="1">
+      <c r="A68" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" customFormat="1">
+      <c r="A69" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" customFormat="1">
+      <c r="A70" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" customFormat="1">
+      <c r="A71" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" customFormat="1">
+      <c r="A72" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" customFormat="1">
+      <c r="A73" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" customFormat="1">
+      <c r="A74" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" customFormat="1">
+      <c r="A75" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" customFormat="1">
+      <c r="A76" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" customFormat="1">
+      <c r="A77" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" customFormat="1">
+      <c r="A78" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" customFormat="1">
+      <c r="A79" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" customFormat="1">
+      <c r="A80" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" customFormat="1">
+      <c r="A35" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" customFormat="1">
+      <c r="A36" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" customFormat="1">
+      <c r="A37" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" customFormat="1">
+      <c r="A38" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" customFormat="1">
+      <c r="A39" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" customFormat="1">
+      <c r="A40" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" customFormat="1">
+      <c r="A41" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" customFormat="1">
+      <c r="A42" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" customFormat="1">
+      <c r="A43" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" customFormat="1">
+      <c r="A44" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" customFormat="1">
+      <c r="A45" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" customFormat="1">
+      <c r="A46" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" customFormat="1">
+      <c r="A47" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" customFormat="1">
+      <c r="A48" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" customFormat="1">
+      <c r="A49" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" customFormat="1">
+      <c r="A50" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" customFormat="1">
+      <c r="A51" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" customFormat="1">
+      <c r="A52" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" customFormat="1">
+      <c r="A53" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" customFormat="1">
+      <c r="A54" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" customFormat="1">
+      <c r="A55" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" customFormat="1">
+      <c r="A56" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" customFormat="1">
+      <c r="A57" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" customFormat="1">
+      <c r="A58" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" customFormat="1">
+      <c r="A59" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" customFormat="1">
+      <c r="A60" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" customFormat="1">
+      <c r="A61" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" customFormat="1">
+      <c r="A62" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" customFormat="1">
+      <c r="A63" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" customFormat="1">
+      <c r="A64" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" customFormat="1">
+      <c r="A65" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" customFormat="1">
+      <c r="A66" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" customFormat="1">
+      <c r="A67" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" customFormat="1">
+      <c r="A68" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" customFormat="1">
+      <c r="A69" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" customFormat="1">
+      <c r="A70" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" customFormat="1">
+      <c r="A71" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" customFormat="1">
+      <c r="A72" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" customFormat="1">
+      <c r="A73" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" customFormat="1">
+      <c r="A74" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" customFormat="1">
+      <c r="A75" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" customFormat="1">
+      <c r="A76" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" customFormat="1">
+      <c r="A77" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" customFormat="1">
+      <c r="A78" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" customFormat="1">
+      <c r="A79" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" customFormat="1">
+      <c r="A80" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" customFormat="1">
+      <c r="A81" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" customFormat="1">
+      <c r="A82" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" customFormat="1">
+      <c r="A83" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" customFormat="1">
+      <c r="A84" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" customFormat="1">
+      <c r="A34" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" customFormat="1">
+      <c r="A35" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" customFormat="1">
+      <c r="A36" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" customFormat="1">
+      <c r="A37" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" customFormat="1">
+      <c r="A38" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" customFormat="1">
+      <c r="A39" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" customFormat="1">
+      <c r="A40" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" customFormat="1">
+      <c r="A41" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" customFormat="1">
+      <c r="A42" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" customFormat="1">
+      <c r="A43" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" customFormat="1">
+      <c r="A44" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" customFormat="1">
+      <c r="A45" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" customFormat="1">
+      <c r="A46" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" customFormat="1">
+      <c r="A47" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" customFormat="1">
+      <c r="A48" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" customFormat="1">
+      <c r="A49" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" customFormat="1">
+      <c r="A50" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" customFormat="1">
+      <c r="A51" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" customFormat="1">
+      <c r="A52" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" customFormat="1">
+      <c r="A53" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" customFormat="1">
+      <c r="A54" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" customFormat="1">
+      <c r="A55" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" customFormat="1">
+      <c r="A56" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" customFormat="1">
+      <c r="A57" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" customFormat="1">
+      <c r="A58" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" customFormat="1">
+      <c r="A59" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" customFormat="1">
+      <c r="A60" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" customFormat="1">
+      <c r="A61" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" customFormat="1">
+      <c r="A62" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" customFormat="1">
+      <c r="A63" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" customFormat="1">
+      <c r="A64" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" customFormat="1">
+      <c r="A65" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" customFormat="1">
+      <c r="A66" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" customFormat="1">
+      <c r="A67" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" customFormat="1">
+      <c r="A68" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" customFormat="1">
+      <c r="A69" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" customFormat="1">
+      <c r="A70" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" customFormat="1">
+      <c r="A71" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" customFormat="1">
+      <c r="A72" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" customFormat="1">
+      <c r="A73" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" customFormat="1">
+      <c r="A74" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" customFormat="1">
+      <c r="A75" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" customFormat="1">
+      <c r="A76" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" customFormat="1">
+      <c r="A77" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" customFormat="1">
+      <c r="A78" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" customFormat="1">
+      <c r="A79" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" customFormat="1">
+      <c r="A80" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" customFormat="1">
+      <c r="A81" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" customFormat="1">
+      <c r="A35" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" customFormat="1">
+      <c r="A36" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" customFormat="1">
+      <c r="A37" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" customFormat="1">
+      <c r="A38" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" customFormat="1">
+      <c r="A39" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" customFormat="1">
+      <c r="A40" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" customFormat="1">
+      <c r="A41" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" customFormat="1">
+      <c r="A42" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" customFormat="1">
+      <c r="A43" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" customFormat="1">
+      <c r="A44" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" customFormat="1">
+      <c r="A45" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" customFormat="1">
+      <c r="A46" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" customFormat="1">
+      <c r="A47" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" customFormat="1">
+      <c r="A48" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" customFormat="1">
+      <c r="A49" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" customFormat="1">
+      <c r="A50" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" customFormat="1">
+      <c r="A51" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" customFormat="1">
+      <c r="A52" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" customFormat="1">
+      <c r="A53" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" customFormat="1">
+      <c r="A54" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" customFormat="1">
+      <c r="A55" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" customFormat="1">
+      <c r="A56" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" customFormat="1">
+      <c r="A57" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" customFormat="1">
+      <c r="A58" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" customFormat="1">
+      <c r="A59" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" customFormat="1">
+      <c r="A60" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" customFormat="1">
+      <c r="A61" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" customFormat="1">
+      <c r="A62" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" customFormat="1">
+      <c r="A63" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" customFormat="1">
+      <c r="A64" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" customFormat="1">
+      <c r="A65" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" customFormat="1">
+      <c r="A66" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" customFormat="1">
+      <c r="A67" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" customFormat="1">
+      <c r="A68" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" customFormat="1">
+      <c r="A69" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" customFormat="1">
+      <c r="A70" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" customFormat="1">
+      <c r="A71" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" customFormat="1">
+      <c r="A72" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" customFormat="1">
+      <c r="A73" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" customFormat="1">
+      <c r="A74" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" customFormat="1">
+      <c r="A75" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" customFormat="1">
+      <c r="A76" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" customFormat="1">
+      <c r="A77" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" customFormat="1">
+      <c r="A78" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" customFormat="1">
+      <c r="A79" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" customFormat="1">
+      <c r="A80" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" customFormat="1">
+      <c r="A81" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" customFormat="1">
+      <c r="A82" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" customFormat="1">
+      <c r="A83" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" customFormat="1">
+      <c r="A84" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" customFormat="1">
+      <c r="A36" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" customFormat="1">
+      <c r="A37" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" customFormat="1">
+      <c r="A38" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" customFormat="1">
+      <c r="A39" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" customFormat="1">
+      <c r="A40" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" customFormat="1">
+      <c r="A41" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" customFormat="1">
+      <c r="A42" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" customFormat="1">
+      <c r="A43" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" customFormat="1">
+      <c r="A44" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" customFormat="1">
+      <c r="A45" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" customFormat="1">
+      <c r="A46" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" customFormat="1">
+      <c r="A47" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" customFormat="1">
+      <c r="A48" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" customFormat="1">
+      <c r="A49" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" customFormat="1">
+      <c r="A50" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" customFormat="1">
+      <c r="A51" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" customFormat="1">
+      <c r="A52" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" customFormat="1">
+      <c r="A53" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" customFormat="1">
+      <c r="A54" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" customFormat="1">
+      <c r="A55" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" customFormat="1">
+      <c r="A56" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" customFormat="1">
+      <c r="A57" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" customFormat="1">
+      <c r="A58" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" customFormat="1">
+      <c r="A59" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" customFormat="1">
+      <c r="A60" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" customFormat="1">
+      <c r="A61" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" customFormat="1">
+      <c r="A62" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" customFormat="1">
+      <c r="A63" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" customFormat="1">
+      <c r="A64" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" customFormat="1">
+      <c r="A65" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" customFormat="1">
+      <c r="A66" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" customFormat="1">
+      <c r="A67" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" customFormat="1">
+      <c r="A68" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" customFormat="1">
+      <c r="A69" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" customFormat="1">
+      <c r="A70" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" customFormat="1">
+      <c r="A71" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" customFormat="1">
+      <c r="A72" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" customFormat="1">
+      <c r="A73" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" customFormat="1">
+      <c r="A74" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" customFormat="1">
+      <c r="A75" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" customFormat="1">
+      <c r="A76" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" customFormat="1">
+      <c r="A77" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" customFormat="1">
+      <c r="A78" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" customFormat="1">
+      <c r="A79" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" customFormat="1">
+      <c r="A80" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" customFormat="1">
+      <c r="A81" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" customFormat="1">
+      <c r="A82" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" customFormat="1">
+      <c r="A83" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" customFormat="1">
+      <c r="A84" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" customFormat="1">
+      <c r="A36" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" customFormat="1">
+      <c r="A37" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" customFormat="1">
+      <c r="A38" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" customFormat="1">
+      <c r="A39" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" customFormat="1">
+      <c r="A40" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" customFormat="1">
+      <c r="A41" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" customFormat="1">
+      <c r="A42" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" customFormat="1">
+      <c r="A43" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" customFormat="1">
+      <c r="A44" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" customFormat="1">
+      <c r="A45" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" customFormat="1">
+      <c r="A46" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" customFormat="1">
+      <c r="A47" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" customFormat="1">
+      <c r="A48" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" customFormat="1">
+      <c r="A49" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" customFormat="1">
+      <c r="A50" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" customFormat="1">
+      <c r="A51" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" customFormat="1">
+      <c r="A52" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" customFormat="1">
+      <c r="A53" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" customFormat="1">
+      <c r="A54" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" customFormat="1">
+      <c r="A55" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" customFormat="1">
+      <c r="A56" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" customFormat="1">
+      <c r="A57" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" customFormat="1">
+      <c r="A58" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" customFormat="1">
+      <c r="A59" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" customFormat="1">
+      <c r="A60" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" customFormat="1">
+      <c r="A61" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" customFormat="1">
+      <c r="A62" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" customFormat="1">
+      <c r="A63" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" customFormat="1">
+      <c r="A64" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" customFormat="1">
+      <c r="A65" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" customFormat="1">
+      <c r="A66" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" customFormat="1">
+      <c r="A67" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" customFormat="1">
+      <c r="A68" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" customFormat="1">
+      <c r="A69" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" customFormat="1">
+      <c r="A70" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" customFormat="1">
+      <c r="A71" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" customFormat="1">
+      <c r="A72" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" customFormat="1">
+      <c r="A73" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" customFormat="1">
+      <c r="A74" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" customFormat="1">
+      <c r="A75" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" customFormat="1">
+      <c r="A76" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" customFormat="1">
+      <c r="A77" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" customFormat="1">
+      <c r="A78" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" customFormat="1">
+      <c r="A79" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" customFormat="1">
+      <c r="A80" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" customFormat="1">
+      <c r="A81" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" customFormat="1">
+      <c r="A82" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" customFormat="1">
+      <c r="A83" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" customFormat="1">
+      <c r="A84" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" customFormat="1" ht="15" thickBot="1">
+      <c r="A85" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1871,18 +6861,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
   </cols>
@@ -1923,7 +6913,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2088,23 +7078,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="33"/>
+    <col min="7" max="7" width="17.88671875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>149</v>
       </c>
@@ -3990,7 +8980,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" ht="409.6">
       <c r="A83" s="29" t="s">
         <v>156</v>
       </c>
@@ -4013,7 +9003,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75" thickBot="1">
+    <row r="84" spans="1:7" ht="15" thickBot="1">
       <c r="A84" s="29" t="s">
         <v>156</v>
       </c>
@@ -4034,6 +9024,2277 @@
       </c>
       <c r="G84" s="32" t="s">
         <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="102" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="104" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="102" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="105" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="102" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="102" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="102" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="102" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="102" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="102" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="102" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="102" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="102">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="102" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="102" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="102" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="102" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="102" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="102" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="102" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="102" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="102" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1">
+      <c r="A36" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="103" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="113" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="110" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="111" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="409.6">
+      <c r="A39" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="111" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="409.6">
+      <c r="A40" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="111" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="409.6">
+      <c r="A41" s="106" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="409.6">
+      <c r="A42" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="111">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="409.6">
+      <c r="A43" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="111" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="409.6">
+      <c r="A44" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="111" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="409.6">
+      <c r="A45" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="111" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="409.6">
+      <c r="A46" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="111" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="409.6">
+      <c r="A47" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" s="111">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="409.6">
+      <c r="A48" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="114" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="409.6">
+      <c r="A49" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="111" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="409.6">
+      <c r="A50" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="114" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="409.6">
+      <c r="A51" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="111" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="409.6">
+      <c r="A52" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="111" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="409.6">
+      <c r="A53" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="114" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="409.6">
+      <c r="A54" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="114" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="409.6">
+      <c r="A55" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="114" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="409.6">
+      <c r="A56" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="114" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="409.6">
+      <c r="A57" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="111" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="409.6">
+      <c r="A58" s="109" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="114" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="409.6">
+      <c r="A59" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="114" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="409.6">
+      <c r="A60" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="114" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="409.6">
+      <c r="A61" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="409.6">
+      <c r="A62" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="114" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="409.6">
+      <c r="A63" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="114" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" thickBot="1">
+      <c r="A64" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="112">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="409.6">
+      <c r="A65" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="119" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="409.6">
+      <c r="A66" s="115" t="s">
+        <v>230</v>
+      </c>
+      <c r="B66" s="118">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" thickBot="1">
+      <c r="A67" s="117" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" s="120">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="409.6">
+      <c r="A68" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="126" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="409.6">
+      <c r="A69" s="124" t="s">
+        <v>161</v>
+      </c>
+      <c r="B69" s="125" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="409.6">
+      <c r="A70" s="121" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="125" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="409.6">
+      <c r="A71" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="125" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="409.6">
+      <c r="A72" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="125" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="409.6">
+      <c r="A73" s="121" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="125" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="409.6">
+      <c r="A74" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="125" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="409.6">
+      <c r="A75" s="121" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="125" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" thickBot="1">
+      <c r="A76" s="123" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="127" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickBot="1">
+      <c r="A77" s="128" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" s="129">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="66">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="66">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="409.6">
+      <c r="A27" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="409.6">
+      <c r="A28" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="409.6">
+      <c r="A29" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="409.6">
+      <c r="A30" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="66">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="409.6">
+      <c r="A31" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="409.6">
+      <c r="A32" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="409.6">
+      <c r="A33" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="409.6">
+      <c r="A34" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="409.6">
+      <c r="A35" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="409.6">
+      <c r="A36" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="409.6">
+      <c r="A37" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="76">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="409.6">
+      <c r="A38" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="409.6">
+      <c r="A39" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="77" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="409.6">
+      <c r="A40" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="77" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="409.6">
+      <c r="A41" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="77" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="409.6">
+      <c r="A42" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="77">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="409.6">
+      <c r="A43" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="77" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="409.6">
+      <c r="A44" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="77" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="409.6">
+      <c r="A45" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="77" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="409.6">
+      <c r="A46" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="77" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="409.6">
+      <c r="A47" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="77" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="409.6">
+      <c r="A48" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="77" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="409.6">
+      <c r="A49" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="77" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="409.6">
+      <c r="A50" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="409.6">
+      <c r="A51" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="77" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="409.6">
+      <c r="A52" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="409.6">
+      <c r="A53" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="78" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="409.6">
+      <c r="A54" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="78" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="409.6">
+      <c r="A55" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="78" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="409.6">
+      <c r="A56" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="409.6">
+      <c r="A57" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="78" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="409.6">
+      <c r="A58" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="78" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="409.6">
+      <c r="A59" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="78" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="409.6">
+      <c r="A60" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="82" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="409.6">
+      <c r="A61" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" s="83">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="409.6">
+      <c r="A62" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="84">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="409.6">
+      <c r="A63" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="84">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" thickBot="1">
+      <c r="A64" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="85">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="409.6">
+      <c r="A65" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="90" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="409.6">
+      <c r="A66" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="91">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="409.6">
+      <c r="A67" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="91" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="409.6">
+      <c r="A68" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="91" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="409.6">
+      <c r="A69" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="91" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="409.6">
+      <c r="A70" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="91" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="409.6">
+      <c r="A71" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="91" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="409.6">
+      <c r="A72" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="91" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="409.6">
+      <c r="A73" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="92" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="409.6">
+      <c r="A74" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="96">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="409.6">
+      <c r="A75" s="93" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="97">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="57">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="57">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="57">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="57">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="409.6">
+      <c r="A27" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="409.6">
+      <c r="A28" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="131" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="409.6">
+      <c r="A29" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="57">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="409.6">
+      <c r="A30" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="409.6">
+      <c r="A31" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="409.6">
+      <c r="A32" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="57">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="409.6">
+      <c r="A33" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="409.6">
+      <c r="A34" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="409.6">
+      <c r="A35" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="409.6">
+      <c r="A36" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="409.6">
+      <c r="A37" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="409.6">
+      <c r="A38" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="57">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="409.6">
+      <c r="A39" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="28.2">
+      <c r="A40" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="409.6">
+      <c r="A41" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="409.6">
+      <c r="A42" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="409.6">
+      <c r="A43" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="57">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="409.6">
+      <c r="A44" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="57" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="409.6">
+      <c r="A45" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="409.6">
+      <c r="A46" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="409.6">
+      <c r="A47" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="409.6">
+      <c r="A48" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="409.6">
+      <c r="A49" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="409.6">
+      <c r="A50" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="409.6">
+      <c r="A51" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="409.6">
+      <c r="A52" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="409.6">
+      <c r="A53" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="409.6">
+      <c r="A54" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="409.6">
+      <c r="A55" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="56" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="409.6">
+      <c r="A56" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="56" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="409.6">
+      <c r="A57" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="409.6">
+      <c r="A58" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="409.6">
+      <c r="A59" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="56" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="409.6">
+      <c r="A60" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="409.6">
+      <c r="A61" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="409.6">
+      <c r="A62" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="409.6">
+      <c r="A63" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="409.6">
+      <c r="A64" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="56" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="409.6">
+      <c r="A65" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="64" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="409.6">
+      <c r="A66" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="131" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="409.6">
+      <c r="A67" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="64" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="409.6">
+      <c r="A68" s="133" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="409.6">
+      <c r="A69" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="409.6">
+      <c r="A70" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="409.6">
+      <c r="A71" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="57" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="409.6">
+      <c r="A72" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="409.6">
+      <c r="A73" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="409.6">
+      <c r="A74" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="57" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="409.6">
+      <c r="A75" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="96">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelFiles/TestData.xlsx
+++ b/src/test/resources/ExcelFiles/TestData.xlsx
@@ -2,9 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git\ZestIOTAutomation\src\test\resources\ExcelFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6720" tabRatio="987" firstSheet="12" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6720" tabRatio="987" firstSheet="15" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -39,8 +44,7 @@
     <definedName name="__Anonymous_Sheet_DB__1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <oleSize ref="A27:P47"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -878,7 +882,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -1977,16 +1981,16 @@
       <selection activeCell="D13" sqref="D13:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.6640625"/>
-    <col min="4" max="4" width="14.5546875"/>
-    <col min="5" max="5" width="21.5546875"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.7109375"/>
+    <col min="4" max="4" width="14.5703125"/>
+    <col min="5" max="5" width="21.5703125"/>
     <col min="6" max="6" width="28"/>
-    <col min="7" max="252" width="8.6640625"/>
-    <col min="253" max="1025" width="11.33203125"/>
+    <col min="7" max="252" width="8.7109375"/>
+    <col min="253" max="1025" width="11.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1">
@@ -2013,7 +2017,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="31.2">
+    <row r="3" spans="1:9" ht="31.5">
       <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
@@ -2033,7 +2037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18">
+    <row r="4" spans="1:9" ht="18.75">
       <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
@@ -2139,7 +2143,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9">
       <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
@@ -2174,7 +2178,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="30">
       <c r="A12" s="21" t="s">
         <v>8</v>
       </c>
@@ -2295,308 +2299,308 @@
       <c r="D24" s="12"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5" ht="409.6">
+    <row r="25" spans="1:5">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
       <c r="D25" s="12"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" ht="409.6">
+    <row r="26" spans="1:5">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:5" ht="409.6">
+    <row r="27" spans="1:5">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:5" ht="409.6">
+    <row r="28" spans="1:5">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5" ht="409.6">
+    <row r="29" spans="1:5">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="17"/>
       <c r="D29" s="12"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" ht="409.6">
+    <row r="30" spans="1:5">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:5" ht="409.6">
+    <row r="31" spans="1:5">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="17"/>
       <c r="D31" s="12"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:5" ht="409.6">
+    <row r="32" spans="1:5">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="18"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="1:5" ht="409.6">
+    <row r="33" spans="1:5">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="18"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="1:5" ht="409.6">
+    <row r="34" spans="1:5">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="18"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="1:5" ht="409.6">
+    <row r="35" spans="1:5">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="17"/>
       <c r="D35" s="18"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="1:5" ht="409.6">
+    <row r="36" spans="1:5">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="1:5" ht="409.6">
+    <row r="37" spans="1:5">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="17"/>
       <c r="D37" s="18"/>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="1:5" ht="409.6">
+    <row r="38" spans="1:5">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5" ht="409.6">
+    <row r="39" spans="1:5">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="1:5" ht="409.6">
+    <row r="40" spans="1:5">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="1:5" ht="409.6">
+    <row r="41" spans="1:5">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="17"/>
       <c r="D41" s="18"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" ht="409.6">
+    <row r="42" spans="1:5">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="17"/>
       <c r="D42" s="18"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" ht="409.6">
+    <row r="43" spans="1:5">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="17"/>
       <c r="D43" s="18"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:5" ht="409.6">
+    <row r="44" spans="1:5">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="1:5" ht="409.6">
+    <row r="45" spans="1:5">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="1:5" ht="409.6">
+    <row r="46" spans="1:5">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="1:5" ht="409.6">
+    <row r="47" spans="1:5">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="1:5" ht="409.6">
+    <row r="48" spans="1:5">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="18"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="1:5" ht="409.6">
+    <row r="49" spans="1:5">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="18"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="1:5" ht="409.6">
+    <row r="50" spans="1:5">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="17"/>
       <c r="D50" s="18"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="1:5" ht="409.6">
+    <row r="51" spans="1:5">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="19"/>
       <c r="D51" s="18"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="1:5" ht="409.6">
+    <row r="52" spans="1:5">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="19"/>
       <c r="D52" s="18"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="1:5" ht="409.6">
+    <row r="53" spans="1:5">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="19"/>
       <c r="D53" s="18"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="1:5" ht="409.6">
+    <row r="54" spans="1:5">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="19"/>
       <c r="D54" s="18"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="1:5" ht="409.6">
+    <row r="55" spans="1:5">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="18"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="1:5" ht="409.6">
+    <row r="56" spans="1:5">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="18"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5" ht="409.6">
+    <row r="57" spans="1:5">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
     </row>
-    <row r="58" spans="1:5" ht="409.6">
+    <row r="58" spans="1:5">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
     </row>
-    <row r="59" spans="1:5" ht="409.6">
+    <row r="59" spans="1:5">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
     </row>
-    <row r="60" spans="1:5" ht="409.6">
+    <row r="60" spans="1:5">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
     </row>
-    <row r="61" spans="1:5" ht="409.6">
+    <row r="61" spans="1:5">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
     </row>
-    <row r="62" spans="1:5" ht="409.6">
+    <row r="62" spans="1:5">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
     </row>
-    <row r="63" spans="1:5" ht="409.6">
+    <row r="63" spans="1:5">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
     </row>
-    <row r="64" spans="1:5" ht="409.6">
+    <row r="64" spans="1:5">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
     </row>
-    <row r="65" spans="1:5" ht="409.6">
+    <row r="65" spans="1:5">
       <c r="A65" s="20"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
     </row>
-    <row r="66" spans="1:5" ht="409.6">
+    <row r="66" spans="1:5">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
     </row>
-    <row r="67" spans="1:5" ht="409.6">
+    <row r="67" spans="1:5">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
     </row>
-    <row r="68" spans="1:5" ht="409.6">
+    <row r="68" spans="1:5">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -2615,7 +2619,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2627,7 +2631,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2639,7 +2643,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2651,7 +2655,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2663,7 +2667,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2675,7 +2679,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2689,7 +2693,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="40" t="s">
@@ -2971,7 +2975,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1">
+    <row r="36" spans="1:2" ht="15.75" thickBot="1">
       <c r="A36" s="99" t="s">
         <v>46</v>
       </c>
@@ -3195,7 +3199,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" thickBot="1">
+    <row r="64" spans="1:2" ht="15.75" thickBot="1">
       <c r="A64" s="107" t="s">
         <v>121</v>
       </c>
@@ -3219,7 +3223,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1">
+    <row r="67" spans="1:2" ht="15.75" thickBot="1">
       <c r="A67" s="117" t="s">
         <v>230</v>
       </c>
@@ -3291,7 +3295,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" thickBot="1">
+    <row r="76" spans="1:2" ht="15.75" thickBot="1">
       <c r="A76" s="123" t="s">
         <v>115</v>
       </c>
@@ -3299,7 +3303,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" thickBot="1">
+    <row r="77" spans="1:2" ht="15.75" thickBot="1">
       <c r="A77" s="128" t="s">
         <v>230</v>
       </c>
@@ -3320,9 +3324,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3829,7 +3833,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" thickBot="1">
+    <row r="64" spans="1:2" ht="15.75" thickBot="1">
       <c r="A64" s="81" t="s">
         <v>159</v>
       </c>
@@ -3939,7 +3943,7 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="40" t="s">
@@ -4253,7 +4257,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="28.2">
+    <row r="40" spans="1:2" ht="29.25">
       <c r="A40" s="132" t="s">
         <v>64</v>
       </c>
@@ -4554,9 +4558,9 @@
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5140,18 +5144,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
   </cols>
@@ -5192,7 +5196,7 @@
       <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
@@ -5852,18 +5856,18 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:A77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>149</v>
       </c>
@@ -5943,307 +5947,307 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:1">
       <c r="A17" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:1">
       <c r="A18" s="27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:1">
       <c r="A19" s="27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:1">
       <c r="A20" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:1">
       <c r="A21" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:1">
       <c r="A22" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:1">
       <c r="A23" s="27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:1">
       <c r="A24" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:1">
       <c r="A25" s="27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:1">
       <c r="A26" s="27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:1">
       <c r="A27" s="27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:1">
       <c r="A28" s="27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:1">
       <c r="A29" s="27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:1">
       <c r="A30" s="27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:1">
       <c r="A31" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:5" customFormat="1">
+    <row r="32" spans="1:1">
       <c r="A32" s="27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:5" customFormat="1">
+    <row r="33" spans="1:1">
       <c r="A33" s="27" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:5" customFormat="1">
+    <row r="34" spans="1:1">
       <c r="A34" s="27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:5" customFormat="1">
+    <row r="35" spans="1:1">
       <c r="A35" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:5" customFormat="1">
+    <row r="36" spans="1:1">
       <c r="A36" s="27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:5" customFormat="1">
+    <row r="37" spans="1:1">
       <c r="A37" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:5" customFormat="1">
+    <row r="38" spans="1:1">
       <c r="A38" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:5" customFormat="1">
+    <row r="39" spans="1:1">
       <c r="A39" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:5" customFormat="1">
+    <row r="40" spans="1:1">
       <c r="A40" s="27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:5" customFormat="1">
+    <row r="41" spans="1:1">
       <c r="A41" s="27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:5" customFormat="1">
+    <row r="42" spans="1:1">
       <c r="A42" s="27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:5" customFormat="1">
+    <row r="43" spans="1:1">
       <c r="A43" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:5" customFormat="1">
+    <row r="44" spans="1:1">
       <c r="A44" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:5" customFormat="1">
+    <row r="45" spans="1:1">
       <c r="A45" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:5" customFormat="1">
+    <row r="46" spans="1:1">
       <c r="A46" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:5" customFormat="1">
+    <row r="47" spans="1:1">
       <c r="A47" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:5" customFormat="1">
+    <row r="48" spans="1:1">
       <c r="A48" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:5" customFormat="1">
+    <row r="49" spans="1:1">
       <c r="A49" s="27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:5" customFormat="1">
+    <row r="50" spans="1:1">
       <c r="A50" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:5" customFormat="1">
+    <row r="51" spans="1:1">
       <c r="A51" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:5" customFormat="1">
+    <row r="52" spans="1:1">
       <c r="A52" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:5" customFormat="1">
+    <row r="53" spans="1:1">
       <c r="A53" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:5" customFormat="1">
+    <row r="54" spans="1:1">
       <c r="A54" s="27" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:5" customFormat="1">
+    <row r="55" spans="1:1">
       <c r="A55" s="27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5" customFormat="1">
+    <row r="56" spans="1:1">
       <c r="A56" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:5" customFormat="1">
+    <row r="57" spans="1:1">
       <c r="A57" s="27" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:5" customFormat="1">
+    <row r="58" spans="1:1">
       <c r="A58" s="27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:5" customFormat="1">
+    <row r="59" spans="1:1">
       <c r="A59" s="27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:5" customFormat="1">
+    <row r="60" spans="1:1">
       <c r="A60" s="27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:5" customFormat="1">
+    <row r="61" spans="1:1">
       <c r="A61" s="27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:5" customFormat="1">
+    <row r="62" spans="1:1">
       <c r="A62" s="27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:5" customFormat="1">
+    <row r="63" spans="1:1">
       <c r="A63" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:5" customFormat="1">
+    <row r="64" spans="1:1">
       <c r="A64" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:5" customFormat="1">
+    <row r="65" spans="1:1">
       <c r="A65" s="27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:5" customFormat="1">
+    <row r="66" spans="1:1">
       <c r="A66" s="27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:5" customFormat="1">
+    <row r="67" spans="1:1">
       <c r="A67" s="27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:5" customFormat="1">
+    <row r="68" spans="1:1">
       <c r="A68" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:5" customFormat="1">
+    <row r="69" spans="1:1">
       <c r="A69" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:5" customFormat="1">
+    <row r="70" spans="1:1">
       <c r="A70" s="27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:5" customFormat="1">
+    <row r="71" spans="1:1">
       <c r="A71" s="27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:5" customFormat="1">
+    <row r="72" spans="1:1">
       <c r="A72" s="27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:5" customFormat="1">
+    <row r="73" spans="1:1">
       <c r="A73" s="27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:5" customFormat="1">
+    <row r="74" spans="1:1">
       <c r="A74" s="27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:5" customFormat="1">
+    <row r="75" spans="1:1">
       <c r="A75" s="27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:5" customFormat="1">
+    <row r="76" spans="1:1">
       <c r="A76" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:5" customFormat="1">
+    <row r="77" spans="1:1">
       <c r="A77" s="25" t="s">
         <v>120</v>
       </c>
@@ -6261,12 +6265,12 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>150</v>
       </c>
@@ -6416,252 +6420,252 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:1" customFormat="1">
+    <row r="31" spans="1:1">
       <c r="A31" s="27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="1:1" customFormat="1">
+    <row r="32" spans="1:1">
       <c r="A32" s="27" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:1" customFormat="1">
+    <row r="33" spans="1:1">
       <c r="A33" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:1" customFormat="1">
+    <row r="34" spans="1:1">
       <c r="A34" s="27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:1" customFormat="1">
+    <row r="35" spans="1:1">
       <c r="A35" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:1" customFormat="1">
+    <row r="36" spans="1:1">
       <c r="A36" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:1" customFormat="1">
+    <row r="37" spans="1:1">
       <c r="A37" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:1" customFormat="1">
+    <row r="38" spans="1:1">
       <c r="A38" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:1" customFormat="1">
+    <row r="39" spans="1:1">
       <c r="A39" s="27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:1" customFormat="1">
+    <row r="40" spans="1:1">
       <c r="A40" s="27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:1" customFormat="1">
+    <row r="41" spans="1:1">
       <c r="A41" s="27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:1" customFormat="1">
+    <row r="42" spans="1:1">
       <c r="A42" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:1" customFormat="1">
+    <row r="43" spans="1:1">
       <c r="A43" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:1" customFormat="1">
+    <row r="44" spans="1:1">
       <c r="A44" s="27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:1" customFormat="1">
+    <row r="45" spans="1:1">
       <c r="A45" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:1" customFormat="1">
+    <row r="46" spans="1:1">
       <c r="A46" s="27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:1" customFormat="1">
+    <row r="47" spans="1:1">
       <c r="A47" s="27" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:1" customFormat="1">
+    <row r="48" spans="1:1">
       <c r="A48" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:1" customFormat="1">
+    <row r="49" spans="1:1">
       <c r="A49" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:1" customFormat="1">
+    <row r="50" spans="1:1">
       <c r="A50" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:1" customFormat="1">
+    <row r="51" spans="1:1">
       <c r="A51" s="27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:1" customFormat="1">
+    <row r="52" spans="1:1">
       <c r="A52" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:1" customFormat="1">
+    <row r="53" spans="1:1">
       <c r="A53" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:1" customFormat="1">
+    <row r="54" spans="1:1">
       <c r="A54" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:1" customFormat="1">
+    <row r="55" spans="1:1">
       <c r="A55" s="27" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:1" customFormat="1">
+    <row r="56" spans="1:1">
       <c r="A56" s="27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:1" customFormat="1">
+    <row r="57" spans="1:1">
       <c r="A57" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:1" customFormat="1">
+    <row r="58" spans="1:1">
       <c r="A58" s="27" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:1" customFormat="1">
+    <row r="59" spans="1:1">
       <c r="A59" s="27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:1" customFormat="1">
+    <row r="60" spans="1:1">
       <c r="A60" s="27" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:1" customFormat="1">
+    <row r="61" spans="1:1">
       <c r="A61" s="27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:1" customFormat="1">
+    <row r="62" spans="1:1">
       <c r="A62" s="27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:1" customFormat="1">
+    <row r="63" spans="1:1">
       <c r="A63" s="27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:1" customFormat="1">
+    <row r="64" spans="1:1">
       <c r="A64" s="27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:1" customFormat="1">
+    <row r="65" spans="1:1">
       <c r="A65" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:1" customFormat="1">
+    <row r="66" spans="1:1">
       <c r="A66" s="27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:1" customFormat="1">
+    <row r="67" spans="1:1">
       <c r="A67" s="27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:1" customFormat="1">
+    <row r="68" spans="1:1">
       <c r="A68" s="27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:1" customFormat="1">
+    <row r="69" spans="1:1">
       <c r="A69" s="27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:1" customFormat="1">
+    <row r="70" spans="1:1">
       <c r="A70" s="27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:1" customFormat="1">
+    <row r="71" spans="1:1">
       <c r="A71" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:1" customFormat="1">
+    <row r="72" spans="1:1">
       <c r="A72" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:1" customFormat="1">
+    <row r="73" spans="1:1">
       <c r="A73" s="27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:1" customFormat="1">
+    <row r="74" spans="1:1">
       <c r="A74" s="27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:1" customFormat="1">
+    <row r="75" spans="1:1">
       <c r="A75" s="27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:1" customFormat="1">
+    <row r="76" spans="1:1">
       <c r="A76" s="27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:1" customFormat="1">
+    <row r="77" spans="1:1">
       <c r="A77" s="27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:1" customFormat="1">
+    <row r="78" spans="1:1">
       <c r="A78" s="27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:1" customFormat="1">
+    <row r="79" spans="1:1">
       <c r="A79" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:1" customFormat="1">
+    <row r="80" spans="1:1">
       <c r="A80" s="25" t="s">
         <v>120</v>
       </c>
@@ -6679,12 +6683,12 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>151</v>
       </c>
@@ -6854,252 +6858,252 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:1" customFormat="1">
+    <row r="35" spans="1:1">
       <c r="A35" s="27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:1" customFormat="1">
+    <row r="36" spans="1:1">
       <c r="A36" s="27" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:1" customFormat="1">
+    <row r="37" spans="1:1">
       <c r="A37" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:1" customFormat="1">
+    <row r="38" spans="1:1">
       <c r="A38" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:1" customFormat="1">
+    <row r="39" spans="1:1">
       <c r="A39" s="27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:1" customFormat="1">
+    <row r="40" spans="1:1">
       <c r="A40" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:1" customFormat="1">
+    <row r="41" spans="1:1">
       <c r="A41" s="27" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:1" customFormat="1">
+    <row r="42" spans="1:1">
       <c r="A42" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:1" customFormat="1">
+    <row r="43" spans="1:1">
       <c r="A43" s="27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:1" customFormat="1">
+    <row r="44" spans="1:1">
       <c r="A44" s="27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:1" customFormat="1">
+    <row r="45" spans="1:1">
       <c r="A45" s="27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:1" customFormat="1">
+    <row r="46" spans="1:1">
       <c r="A46" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:1" customFormat="1">
+    <row r="47" spans="1:1">
       <c r="A47" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:1" customFormat="1">
+    <row r="48" spans="1:1">
       <c r="A48" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:1" customFormat="1">
+    <row r="49" spans="1:1">
       <c r="A49" s="27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:1" customFormat="1">
+    <row r="50" spans="1:1">
       <c r="A50" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:1" customFormat="1">
+    <row r="51" spans="1:1">
       <c r="A51" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:1" customFormat="1">
+    <row r="52" spans="1:1">
       <c r="A52" s="27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:1" customFormat="1">
+    <row r="53" spans="1:1">
       <c r="A53" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:1" customFormat="1" ht="409.6">
+    <row r="54" spans="1:1">
       <c r="A54" s="27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:1" customFormat="1" ht="409.6">
+    <row r="55" spans="1:1">
       <c r="A55" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:1" customFormat="1" ht="409.6">
+    <row r="56" spans="1:1">
       <c r="A56" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:1" customFormat="1" ht="409.6">
+    <row r="57" spans="1:1">
       <c r="A57" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:1" customFormat="1" ht="409.6">
+    <row r="58" spans="1:1">
       <c r="A58" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:1" customFormat="1" ht="409.6">
+    <row r="59" spans="1:1">
       <c r="A59" s="27" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:1" customFormat="1" ht="409.6">
+    <row r="60" spans="1:1">
       <c r="A60" s="27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:1" customFormat="1" ht="409.6">
+    <row r="61" spans="1:1">
       <c r="A61" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:1" customFormat="1" ht="409.6">
+    <row r="62" spans="1:1">
       <c r="A62" s="27" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:1" customFormat="1" ht="409.6">
+    <row r="63" spans="1:1">
       <c r="A63" s="27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:1" customFormat="1" ht="409.6">
+    <row r="64" spans="1:1">
       <c r="A64" s="27" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:1" customFormat="1" ht="409.6">
+    <row r="65" spans="1:1">
       <c r="A65" s="27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:1" customFormat="1" ht="409.6">
+    <row r="66" spans="1:1">
       <c r="A66" s="27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:1" customFormat="1" ht="409.6">
+    <row r="67" spans="1:1">
       <c r="A67" s="27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:1" customFormat="1" ht="409.6">
+    <row r="68" spans="1:1">
       <c r="A68" s="27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:1" customFormat="1" ht="409.6">
+    <row r="69" spans="1:1">
       <c r="A69" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:1" customFormat="1" ht="409.6">
+    <row r="70" spans="1:1">
       <c r="A70" s="27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:1" customFormat="1" ht="409.6">
+    <row r="71" spans="1:1">
       <c r="A71" s="27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:1" customFormat="1" ht="409.6">
+    <row r="72" spans="1:1">
       <c r="A72" s="27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:1" customFormat="1" ht="409.6">
+    <row r="73" spans="1:1">
       <c r="A73" s="27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:1" customFormat="1" ht="409.6">
+    <row r="74" spans="1:1">
       <c r="A74" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:1" customFormat="1" ht="409.6">
+    <row r="75" spans="1:1">
       <c r="A75" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:1" customFormat="1" ht="409.6">
+    <row r="76" spans="1:1">
       <c r="A76" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:1" customFormat="1" ht="409.6">
+    <row r="77" spans="1:1">
       <c r="A77" s="27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:1" customFormat="1" ht="409.6">
+    <row r="78" spans="1:1">
       <c r="A78" s="27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:1" customFormat="1" ht="409.6">
+    <row r="79" spans="1:1">
       <c r="A79" s="27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:1" customFormat="1" ht="409.6">
+    <row r="80" spans="1:1">
       <c r="A80" s="27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:1" customFormat="1" ht="409.6">
+    <row r="81" spans="1:1">
       <c r="A81" s="27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:1" customFormat="1" ht="409.6">
+    <row r="82" spans="1:1">
       <c r="A82" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:1" customFormat="1" ht="409.6">
+    <row r="83" spans="1:1">
       <c r="A83" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:1" customFormat="1" ht="409.6">
+    <row r="84" spans="1:1">
       <c r="A84" s="25" t="s">
         <v>120</v>
       </c>
@@ -7114,15 +7118,15 @@
   <dimension ref="A1:A81"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>152</v>
       </c>
@@ -7287,242 +7291,242 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:1" customFormat="1">
+    <row r="34" spans="1:1">
       <c r="A34" s="27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:1" customFormat="1">
+    <row r="35" spans="1:1">
       <c r="A35" s="27" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:1" customFormat="1">
+    <row r="36" spans="1:1">
       <c r="A36" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:1" customFormat="1">
+    <row r="37" spans="1:1">
       <c r="A37" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:1" customFormat="1">
+    <row r="38" spans="1:1">
       <c r="A38" s="27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:1" customFormat="1">
+    <row r="39" spans="1:1">
       <c r="A39" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:1" customFormat="1">
+    <row r="40" spans="1:1">
       <c r="A40" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:1" customFormat="1">
+    <row r="41" spans="1:1">
       <c r="A41" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:1" customFormat="1">
+    <row r="42" spans="1:1">
       <c r="A42" s="27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:1" customFormat="1">
+    <row r="43" spans="1:1">
       <c r="A43" s="27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:1" customFormat="1">
+    <row r="44" spans="1:1">
       <c r="A44" s="27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:1" customFormat="1">
+    <row r="45" spans="1:1">
       <c r="A45" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:1" customFormat="1">
+    <row r="46" spans="1:1">
       <c r="A46" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:1" customFormat="1">
+    <row r="47" spans="1:1">
       <c r="A47" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:1" customFormat="1">
+    <row r="48" spans="1:1">
       <c r="A48" s="27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:1" customFormat="1">
+    <row r="49" spans="1:1">
       <c r="A49" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:1" customFormat="1" ht="409.6">
+    <row r="50" spans="1:1">
       <c r="A50" s="27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:1" customFormat="1" ht="409.6">
+    <row r="51" spans="1:1">
       <c r="A51" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:1" customFormat="1" ht="409.6">
+    <row r="52" spans="1:1">
       <c r="A52" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:1" customFormat="1" ht="409.6">
+    <row r="53" spans="1:1">
       <c r="A53" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:1" customFormat="1" ht="409.6">
+    <row r="54" spans="1:1">
       <c r="A54" s="27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:1" customFormat="1" ht="409.6">
+    <row r="55" spans="1:1">
       <c r="A55" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:1" customFormat="1" ht="409.6">
+    <row r="56" spans="1:1">
       <c r="A56" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:1" customFormat="1" ht="409.6">
+    <row r="57" spans="1:1">
       <c r="A57" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:1" customFormat="1" ht="409.6">
+    <row r="58" spans="1:1">
       <c r="A58" s="27" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:1" customFormat="1" ht="409.6">
+    <row r="59" spans="1:1">
       <c r="A59" s="27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:1" customFormat="1" ht="409.6">
+    <row r="60" spans="1:1">
       <c r="A60" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:1" customFormat="1" ht="409.6">
+    <row r="61" spans="1:1">
       <c r="A61" s="27" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:1" customFormat="1" ht="409.6">
+    <row r="62" spans="1:1">
       <c r="A62" s="27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:1" customFormat="1" ht="409.6">
+    <row r="63" spans="1:1">
       <c r="A63" s="27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:1" customFormat="1" ht="409.6">
+    <row r="64" spans="1:1">
       <c r="A64" s="27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:1" customFormat="1" ht="409.6">
+    <row r="65" spans="1:1">
       <c r="A65" s="27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:1" customFormat="1" ht="409.6">
+    <row r="66" spans="1:1">
       <c r="A66" s="27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:1" customFormat="1" ht="409.6">
+    <row r="67" spans="1:1">
       <c r="A67" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:1" customFormat="1" ht="409.6">
+    <row r="68" spans="1:1">
       <c r="A68" s="27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:1" customFormat="1" ht="409.6">
+    <row r="69" spans="1:1">
       <c r="A69" s="27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:1" customFormat="1" ht="409.6">
+    <row r="70" spans="1:1">
       <c r="A70" s="27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:1" customFormat="1" ht="409.6">
+    <row r="71" spans="1:1">
       <c r="A71" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:1" customFormat="1" ht="409.6">
+    <row r="72" spans="1:1">
       <c r="A72" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:1" customFormat="1" ht="409.6">
+    <row r="73" spans="1:1">
       <c r="A73" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:1" customFormat="1" ht="409.6">
+    <row r="74" spans="1:1">
       <c r="A74" s="27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:1" customFormat="1" ht="409.6">
+    <row r="75" spans="1:1">
       <c r="A75" s="27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:1" customFormat="1" ht="409.6">
+    <row r="76" spans="1:1">
       <c r="A76" s="27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:1" customFormat="1" ht="409.6">
+    <row r="77" spans="1:1">
       <c r="A77" s="27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:1" customFormat="1" ht="409.6">
+    <row r="78" spans="1:1">
       <c r="A78" s="27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:1" customFormat="1" ht="409.6">
+    <row r="79" spans="1:1">
       <c r="A79" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:1" customFormat="1" ht="409.6">
+    <row r="80" spans="1:1">
       <c r="A80" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:1" customFormat="1" ht="409.6">
+    <row r="81" spans="1:1">
       <c r="A81" s="25" t="s">
         <v>120</v>
       </c>
@@ -7540,12 +7544,12 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>153</v>
       </c>
@@ -7715,252 +7719,252 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:1" customFormat="1">
+    <row r="35" spans="1:1">
       <c r="A35" s="27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:1" customFormat="1">
+    <row r="36" spans="1:1">
       <c r="A36" s="27" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:1" customFormat="1">
+    <row r="37" spans="1:1">
       <c r="A37" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:1" customFormat="1">
+    <row r="38" spans="1:1">
       <c r="A38" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:1" customFormat="1">
+    <row r="39" spans="1:1">
       <c r="A39" s="27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:1" customFormat="1">
+    <row r="40" spans="1:1">
       <c r="A40" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:1" customFormat="1">
+    <row r="41" spans="1:1">
       <c r="A41" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:1" customFormat="1">
+    <row r="42" spans="1:1">
       <c r="A42" s="27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:1" customFormat="1">
+    <row r="43" spans="1:1">
       <c r="A43" s="27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:1" customFormat="1">
+    <row r="44" spans="1:1">
       <c r="A44" s="27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:1" customFormat="1">
+    <row r="45" spans="1:1">
       <c r="A45" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:1" customFormat="1">
+    <row r="46" spans="1:1">
       <c r="A46" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:1" customFormat="1">
+    <row r="47" spans="1:1">
       <c r="A47" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:1" customFormat="1">
+    <row r="48" spans="1:1">
       <c r="A48" s="27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:1" customFormat="1">
+    <row r="49" spans="1:1">
       <c r="A49" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:1" customFormat="1">
+    <row r="50" spans="1:1">
       <c r="A50" s="27" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:1" customFormat="1">
+    <row r="51" spans="1:1">
       <c r="A51" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:1" customFormat="1" ht="409.6">
+    <row r="52" spans="1:1">
       <c r="A52" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:1" customFormat="1" ht="409.6">
+    <row r="53" spans="1:1">
       <c r="A53" s="27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:1" customFormat="1" ht="409.6">
+    <row r="54" spans="1:1">
       <c r="A54" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:1" customFormat="1" ht="409.6">
+    <row r="55" spans="1:1">
       <c r="A55" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:1" customFormat="1" ht="409.6">
+    <row r="56" spans="1:1">
       <c r="A56" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:1" customFormat="1" ht="409.6">
+    <row r="57" spans="1:1">
       <c r="A57" s="27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:1" customFormat="1" ht="409.6">
+    <row r="58" spans="1:1">
       <c r="A58" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:1" customFormat="1" ht="409.6">
+    <row r="59" spans="1:1">
       <c r="A59" s="27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:1" customFormat="1" ht="409.6">
+    <row r="60" spans="1:1">
       <c r="A60" s="27" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:1" customFormat="1" ht="409.6">
+    <row r="61" spans="1:1">
       <c r="A61" s="27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:1" customFormat="1" ht="409.6">
+    <row r="62" spans="1:1">
       <c r="A62" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:1" customFormat="1" ht="409.6">
+    <row r="63" spans="1:1">
       <c r="A63" s="27" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:1" customFormat="1" ht="409.6">
+    <row r="64" spans="1:1">
       <c r="A64" s="27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:1" customFormat="1" ht="409.6">
+    <row r="65" spans="1:1">
       <c r="A65" s="27" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:1" customFormat="1" ht="409.6">
+    <row r="66" spans="1:1">
       <c r="A66" s="27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:1" customFormat="1" ht="409.6">
+    <row r="67" spans="1:1">
       <c r="A67" s="27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:1" customFormat="1" ht="409.6">
+    <row r="68" spans="1:1">
       <c r="A68" s="27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:1" customFormat="1" ht="409.6">
+    <row r="69" spans="1:1">
       <c r="A69" s="27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:1" customFormat="1" ht="409.6">
+    <row r="70" spans="1:1">
       <c r="A70" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:1" customFormat="1" ht="409.6">
+    <row r="71" spans="1:1">
       <c r="A71" s="27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:1" customFormat="1" ht="409.6">
+    <row r="72" spans="1:1">
       <c r="A72" s="27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:1" customFormat="1" ht="409.6">
+    <row r="73" spans="1:1">
       <c r="A73" s="27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:1" customFormat="1" ht="409.6">
+    <row r="74" spans="1:1">
       <c r="A74" s="27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:1" customFormat="1" ht="409.6">
+    <row r="75" spans="1:1">
       <c r="A75" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:1" customFormat="1" ht="409.6">
+    <row r="76" spans="1:1">
       <c r="A76" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:1" customFormat="1" ht="409.6">
+    <row r="77" spans="1:1">
       <c r="A77" s="27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:1" customFormat="1" ht="409.6">
+    <row r="78" spans="1:1">
       <c r="A78" s="27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:1" customFormat="1" ht="409.6">
+    <row r="79" spans="1:1">
       <c r="A79" s="27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:1" customFormat="1" ht="409.6">
+    <row r="80" spans="1:1">
       <c r="A80" s="27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:1" customFormat="1" ht="409.6">
+    <row r="81" spans="1:1">
       <c r="A81" s="27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:1" customFormat="1" ht="409.6">
+    <row r="82" spans="1:1">
       <c r="A82" s="27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:1" customFormat="1" ht="409.6">
+    <row r="83" spans="1:1">
       <c r="A83" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:1" customFormat="1" ht="409.6">
+    <row r="84" spans="1:1">
       <c r="A84" s="25" t="s">
         <v>120</v>
       </c>
@@ -7978,12 +7982,12 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>154</v>
       </c>
@@ -8158,247 +8162,247 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:1" customFormat="1">
+    <row r="36" spans="1:1">
       <c r="A36" s="27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:1" customFormat="1">
+    <row r="37" spans="1:1">
       <c r="A37" s="27" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:1" customFormat="1">
+    <row r="38" spans="1:1">
       <c r="A38" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:1" customFormat="1">
+    <row r="39" spans="1:1">
       <c r="A39" s="27" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:1" customFormat="1">
+    <row r="40" spans="1:1">
       <c r="A40" s="27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:1" customFormat="1">
+    <row r="41" spans="1:1">
       <c r="A41" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:1" customFormat="1">
+    <row r="42" spans="1:1">
       <c r="A42" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:1" customFormat="1">
+    <row r="43" spans="1:1">
       <c r="A43" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:1" customFormat="1">
+    <row r="44" spans="1:1">
       <c r="A44" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:1" customFormat="1">
+    <row r="45" spans="1:1">
       <c r="A45" s="27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:1" customFormat="1">
+    <row r="46" spans="1:1">
       <c r="A46" s="27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:1" customFormat="1">
+    <row r="47" spans="1:1">
       <c r="A47" s="27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:1" customFormat="1">
+    <row r="48" spans="1:1">
       <c r="A48" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:1" customFormat="1">
+    <row r="49" spans="1:1">
       <c r="A49" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:1" customFormat="1">
+    <row r="50" spans="1:1">
       <c r="A50" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:1" customFormat="1">
+    <row r="51" spans="1:1">
       <c r="A51" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:1" customFormat="1">
+    <row r="52" spans="1:1">
       <c r="A52" s="27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:1" customFormat="1" ht="409.6">
+    <row r="53" spans="1:1">
       <c r="A53" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:1" customFormat="1" ht="409.6">
+    <row r="54" spans="1:1">
       <c r="A54" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:1" customFormat="1" ht="409.6">
+    <row r="55" spans="1:1">
       <c r="A55" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:1" customFormat="1" ht="409.6">
+    <row r="56" spans="1:1">
       <c r="A56" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:1" customFormat="1" ht="409.6">
+    <row r="57" spans="1:1">
       <c r="A57" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:1" customFormat="1" ht="409.6">
+    <row r="58" spans="1:1">
       <c r="A58" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:1" customFormat="1" ht="409.6">
+    <row r="59" spans="1:1">
       <c r="A59" s="27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:1" customFormat="1" ht="409.6">
+    <row r="60" spans="1:1">
       <c r="A60" s="27" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:1" customFormat="1" ht="409.6">
+    <row r="61" spans="1:1">
       <c r="A61" s="27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:1" customFormat="1" ht="409.6">
+    <row r="62" spans="1:1">
       <c r="A62" s="27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:1" customFormat="1" ht="409.6">
+    <row r="63" spans="1:1">
       <c r="A63" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:1" customFormat="1" ht="409.6">
+    <row r="64" spans="1:1">
       <c r="A64" s="27" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:1" customFormat="1" ht="409.6">
+    <row r="65" spans="1:1">
       <c r="A65" s="27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:1" customFormat="1" ht="409.6">
+    <row r="66" spans="1:1">
       <c r="A66" s="27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:1" customFormat="1" ht="409.6">
+    <row r="67" spans="1:1">
       <c r="A67" s="27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:1" customFormat="1" ht="409.6">
+    <row r="68" spans="1:1">
       <c r="A68" s="27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:1" customFormat="1" ht="409.6">
+    <row r="69" spans="1:1">
       <c r="A69" s="27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:1" customFormat="1" ht="409.6">
+    <row r="70" spans="1:1">
       <c r="A70" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:1" customFormat="1" ht="409.6">
+    <row r="71" spans="1:1">
       <c r="A71" s="27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:1" customFormat="1" ht="409.6">
+    <row r="72" spans="1:1">
       <c r="A72" s="27" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:1" customFormat="1" ht="409.6">
+    <row r="73" spans="1:1">
       <c r="A73" s="27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:1" customFormat="1" ht="409.6">
+    <row r="74" spans="1:1">
       <c r="A74" s="27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:1" customFormat="1" ht="409.6">
+    <row r="75" spans="1:1">
       <c r="A75" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:1" customFormat="1" ht="409.6">
+    <row r="76" spans="1:1">
       <c r="A76" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:1" customFormat="1" ht="409.6">
+    <row r="77" spans="1:1">
       <c r="A77" s="27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:1" customFormat="1" ht="409.6">
+    <row r="78" spans="1:1">
       <c r="A78" s="27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:1" customFormat="1" ht="409.6">
+    <row r="79" spans="1:1">
       <c r="A79" s="27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:1" customFormat="1" ht="409.6">
+    <row r="80" spans="1:1">
       <c r="A80" s="27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:1" customFormat="1" ht="409.6">
+    <row r="81" spans="1:1">
       <c r="A81" s="27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:1" customFormat="1" ht="409.6">
+    <row r="82" spans="1:1">
       <c r="A82" s="27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:1" customFormat="1" ht="409.6">
+    <row r="83" spans="1:1">
       <c r="A83" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:1" customFormat="1" ht="409.6">
+    <row r="84" spans="1:1">
       <c r="A84" s="25" t="s">
         <v>120</v>
       </c>
@@ -8412,16 +8416,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="O94" sqref="O94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>155</v>
       </c>
@@ -8596,252 +8600,252 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:1" customFormat="1">
+    <row r="36" spans="1:1">
       <c r="A36" s="27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:1" customFormat="1">
+    <row r="37" spans="1:1">
       <c r="A37" s="27" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:1" customFormat="1">
+    <row r="38" spans="1:1">
       <c r="A38" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:1" customFormat="1">
+    <row r="39" spans="1:1">
       <c r="A39" s="27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:1" customFormat="1">
+    <row r="40" spans="1:1">
       <c r="A40" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:1" customFormat="1">
+    <row r="41" spans="1:1">
       <c r="A41" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:1" customFormat="1">
+    <row r="42" spans="1:1">
       <c r="A42" s="27" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:1" customFormat="1">
+    <row r="43" spans="1:1">
       <c r="A43" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:1" customFormat="1">
+    <row r="44" spans="1:1">
       <c r="A44" s="27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:1" customFormat="1">
+    <row r="45" spans="1:1">
       <c r="A45" s="27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:1" customFormat="1">
+    <row r="46" spans="1:1">
       <c r="A46" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:1" customFormat="1">
+    <row r="47" spans="1:1">
       <c r="A47" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:1" customFormat="1">
+    <row r="48" spans="1:1">
       <c r="A48" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:1" customFormat="1">
+    <row r="49" spans="1:1">
       <c r="A49" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:1" customFormat="1">
+    <row r="50" spans="1:1">
       <c r="A50" s="29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:1" customFormat="1">
+    <row r="51" spans="1:1">
       <c r="A51" s="27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:1" customFormat="1">
+    <row r="52" spans="1:1">
       <c r="A52" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" customFormat="1">
+    <row r="53" spans="1:1">
       <c r="A53" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:1" customFormat="1">
+    <row r="54" spans="1:1">
       <c r="A54" s="27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:1" customFormat="1">
+    <row r="55" spans="1:1">
       <c r="A55" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:1" customFormat="1">
+    <row r="56" spans="1:1">
       <c r="A56" s="27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:1" customFormat="1">
+    <row r="57" spans="1:1">
       <c r="A57" s="27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:1" customFormat="1">
+    <row r="58" spans="1:1">
       <c r="A58" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:1" customFormat="1">
+    <row r="59" spans="1:1">
       <c r="A59" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:1" customFormat="1">
+    <row r="60" spans="1:1">
       <c r="A60" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:1" customFormat="1">
+    <row r="61" spans="1:1">
       <c r="A61" s="27" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:1" customFormat="1">
+    <row r="62" spans="1:1">
       <c r="A62" s="27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:1" customFormat="1">
+    <row r="63" spans="1:1">
       <c r="A63" s="27" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:1" customFormat="1">
+    <row r="64" spans="1:1">
       <c r="A64" s="27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:1" customFormat="1">
+    <row r="65" spans="1:1">
       <c r="A65" s="27" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:1" customFormat="1">
+    <row r="66" spans="1:1">
       <c r="A66" s="27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:1" customFormat="1">
+    <row r="67" spans="1:1">
       <c r="A67" s="27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:1" customFormat="1">
+    <row r="68" spans="1:1">
       <c r="A68" s="27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:1" customFormat="1">
+    <row r="69" spans="1:1">
       <c r="A69" s="27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:1" customFormat="1">
+    <row r="70" spans="1:1">
       <c r="A70" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:1" customFormat="1">
+    <row r="71" spans="1:1">
       <c r="A71" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:1" customFormat="1">
+    <row r="72" spans="1:1">
       <c r="A72" s="27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:1" customFormat="1">
+    <row r="73" spans="1:1">
       <c r="A73" s="27" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:1" customFormat="1">
+    <row r="74" spans="1:1">
       <c r="A74" s="27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:1" customFormat="1">
+    <row r="75" spans="1:1">
       <c r="A75" s="27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:1" customFormat="1">
+    <row r="76" spans="1:1">
       <c r="A76" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:1" customFormat="1">
+    <row r="77" spans="1:1">
       <c r="A77" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:1" customFormat="1">
+    <row r="78" spans="1:1">
       <c r="A78" s="27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:1" customFormat="1">
+    <row r="79" spans="1:1">
       <c r="A79" s="27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:1" customFormat="1">
+    <row r="80" spans="1:1">
       <c r="A80" s="27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:1" customFormat="1">
+    <row r="81" spans="1:1">
       <c r="A81" s="27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:1" customFormat="1">
+    <row r="82" spans="1:1">
       <c r="A82" s="27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:1" customFormat="1">
+    <row r="83" spans="1:1">
       <c r="A83" s="27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:1" customFormat="1">
+    <row r="84" spans="1:1">
       <c r="A84" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="1:1" customFormat="1" ht="15" thickBot="1">
+    <row r="85" spans="1:1" ht="15.75" thickBot="1">
       <c r="A85" s="32" t="s">
         <v>120</v>
       </c>
@@ -8859,7 +8863,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -9028,19 +9032,19 @@
       <selection activeCell="G1" sqref="G1:G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="33"/>
+    <col min="7" max="7" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>149</v>
       </c>
@@ -10949,7 +10953,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" thickBot="1">
+    <row r="84" spans="1:7" ht="15.75" thickBot="1">
       <c r="A84" s="29" t="s">
         <v>156</v>
       </c>
@@ -10983,7 +10987,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10995,7 +10999,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11009,9 +11013,9 @@
       <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -11401,7 +11405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11413,7 +11417,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/ExcelFiles/TestData.xlsx
+++ b/src/test/resources/ExcelFiles/TestData.xlsx
@@ -2689,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8416,7 +8416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O94" sqref="O94"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/ExcelFiles/TestData.xlsx
+++ b/src/test/resources/ExcelFiles/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6720" tabRatio="987" firstSheet="15" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6720" tabRatio="987" firstSheet="15" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="276">
   <si>
     <t>Test Browser – FF,Chrome,IE10</t>
   </si>
@@ -6259,10 +6259,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A80"/>
+  <dimension ref="A1:A79"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6522,151 +6522,146 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="27" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="27" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="27" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="27" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="27" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="27" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="27" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="25" t="s">
+      <c r="A79" s="25" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6677,10 +6672,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A84"/>
+  <dimension ref="A1:A83"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6955,156 +6950,151 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="27" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="27" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="27" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="27" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="27" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="27" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="27" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="27" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="27" t="s">
-        <v>117</v>
+      <c r="A81" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="24" t="s">
-        <v>118</v>
+      <c r="A82" s="27" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="25" t="s">
+      <c r="A83" s="25" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7115,10 +7105,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A81"/>
+  <dimension ref="A1:A80"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7393,141 +7383,136 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="27" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="27" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="27" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="27" t="s">
-        <v>117</v>
+      <c r="A78" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="24" t="s">
-        <v>118</v>
+      <c r="A79" s="27" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="25" t="s">
+      <c r="A80" s="25" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7538,10 +7523,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A84"/>
+  <dimension ref="A1:A83"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7831,141 +7816,136 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="27" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="27" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="27" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="27" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="27" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="27" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="27" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="25" t="s">
+      <c r="A83" s="25" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7978,7 +7958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A84"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -8414,10 +8394,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A85"/>
+  <dimension ref="A1:A84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O94" sqref="O94"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8632,221 +8612,216 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="27" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="27" t="s">
-        <v>89</v>
+      <c r="A49" s="29" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="29" t="s">
-        <v>121</v>
+      <c r="A50" s="27" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="27" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="27" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="27" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="27" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="27" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="27" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="27" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="27" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A85" s="32" t="s">
+    <row r="84" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A84" s="32" t="s">
         <v>120</v>
       </c>
     </row>
